--- a/Zeta-Potential_Plots/1016_ZetaPotentialData.xlsx
+++ b/Zeta-Potential_Plots/1016_ZetaPotentialData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8314A9-42D4-7D43-A92E-212C9E7CD562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638D5DA6-EF43-2643-ADA3-21AF73B5CBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11760" yWindow="2180" windowWidth="13620" windowHeight="10740" xr2:uid="{C7D04462-72A9-9A45-A05A-D3F26F7A7462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Polymer</t>
   </si>
@@ -70,6 +71,27 @@
   </si>
   <si>
     <t>Stdev</t>
+  </si>
+  <si>
+    <t>DMA G2</t>
+  </si>
+  <si>
+    <t>DMA G1</t>
+  </si>
+  <si>
+    <t>DIP G2</t>
+  </si>
+  <si>
+    <t>DIP B1</t>
+  </si>
+  <si>
+    <t>DIP S1</t>
+  </si>
+  <si>
+    <t>DMA S1</t>
+  </si>
+  <si>
+    <t>DMA B2</t>
   </si>
 </sst>
 </file>
@@ -668,7 +690,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,7 +712,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$5:$G$7)</f>
@@ -703,7 +725,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$8:$G$10)</f>
@@ -716,7 +738,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$11:$G$13)</f>
@@ -729,7 +751,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$14:$G$16)</f>
@@ -742,7 +764,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$17:$G$19)</f>
@@ -755,7 +777,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$20:$G$22)</f>
@@ -768,7 +790,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$2:$G$4)</f>
@@ -777,6 +799,64 @@
       <c r="C8">
         <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$2:$G$4)</f>
         <v>3.0098006578509473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA560A3-D24E-0549-BF6A-D338099A10D2}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Zeta-Potential_Plots/1016_ZetaPotentialData.xlsx
+++ b/Zeta-Potential_Plots/1016_ZetaPotentialData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638D5DA6-EF43-2643-ADA3-21AF73B5CBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D15D35-FEE2-3A4D-AE70-0B8D63136BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="2180" windowWidth="13620" windowHeight="10740" xr2:uid="{C7D04462-72A9-9A45-A05A-D3F26F7A7462}"/>
+    <workbookView xWindow="11760" yWindow="2180" windowWidth="15360" windowHeight="12740" xr2:uid="{C7D04462-72A9-9A45-A05A-D3F26F7A7462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Polymer</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>DMA B2</t>
+  </si>
+  <si>
+    <t>pDNA</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
       <sheetName val="20231016_Zeta-PotentialData"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="G2">
             <v>26.26</v>
@@ -382,6 +385,21 @@
         <row r="22">
           <cell r="G22">
             <v>31.47</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="G23">
+            <v>-0.91</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="G25">
+            <v>-0.33</v>
           </cell>
         </row>
       </sheetData>
@@ -687,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE87C6B2-CBA5-A04D-92AA-57182B086868}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,91 +730,104 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE('[2]20231016_Zeta-PotentialData'!$G$23:$G$25)</f>
+        <v>-0.12000000000000001</v>
+      </c>
+      <c r="C2">
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$23:$G$25)</f>
+        <v>0.91329075326535525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$5:$G$7)</f>
         <v>32.4</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$5:$G$7)</f>
         <v>4.0159058753909846</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$8:$G$10)</f>
         <v>35.683333333333337</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$8:$G$10)</f>
         <v>2.6828405344584558</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$11:$G$13)</f>
         <v>34.953333333333333</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$11:$G$13)</f>
         <v>5.9696929010907374</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$14:$G$16)</f>
         <v>22.416666666666668</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$14:$G$16)</f>
         <v>4.3448168354181895</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$17:$G$19)</f>
         <v>49.919999999999995</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$17:$G$19)</f>
         <v>5.8114369995724839</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$20:$G$22)</f>
         <v>33.906666666666666</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$20:$G$22)</f>
         <v>3.7707603123684934</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$2:$G$4)</f>
         <v>22.94</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$2:$G$4)</f>
         <v>3.0098006578509473</v>
       </c>

--- a/Zeta-Potential_Plots/1016_ZetaPotentialData.xlsx
+++ b/Zeta-Potential_Plots/1016_ZetaPotentialData.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D15D35-FEE2-3A4D-AE70-0B8D63136BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784078C5-D7D5-EF43-A78E-4C35DE827EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="2180" windowWidth="15360" windowHeight="12740" xr2:uid="{C7D04462-72A9-9A45-A05A-D3F26F7A7462}"/>
+    <workbookView xWindow="180" yWindow="4240" windowWidth="19500" windowHeight="13600" xr2:uid="{C7D04462-72A9-9A45-A05A-D3F26F7A7462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,32 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Polymer</t>
   </si>
   <si>
-    <t>DMAEMA-HEMA (90min, 90min) Gradient</t>
-  </si>
-  <si>
-    <t>DMAEMA-HEMA (90min, 30min) Gradient</t>
-  </si>
-  <si>
-    <t>DIP-HEMA (90min, 90min) Gradient</t>
-  </si>
-  <si>
-    <t>DIP-HEMA Block (1.1 equiv)</t>
-  </si>
-  <si>
-    <t>DMAEMA HEMA Block #2</t>
-  </si>
-  <si>
-    <t>DIP50HEMA50</t>
-  </si>
-  <si>
-    <t>DMAEMA50HEMA50</t>
-  </si>
-  <si>
     <t>Zeta Potential</t>
   </si>
   <si>
@@ -91,10 +69,10 @@
     <t>DMA S1</t>
   </si>
   <si>
-    <t>DMA B2</t>
-  </si>
-  <si>
     <t>pDNA</t>
+  </si>
+  <si>
+    <t>DMA B1</t>
   </si>
 </sst>
 </file>
@@ -385,21 +363,6 @@
         <row r="22">
           <cell r="G22">
             <v>31.47</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>-0.91</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>0.88</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>-0.33</v>
           </cell>
         </row>
       </sheetData>
@@ -708,7 +671,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,172 +685,114 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <f>AVERAGE('[2]20231016_Zeta-PotentialData'!$G$23:$G$25)</f>
-        <v>-0.12000000000000001</v>
+        <f>AVERAGE(-46.85,-52.23,-40.11)</f>
+        <v>-46.396666666666668</v>
       </c>
       <c r="C2">
-        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$23:$G$25)</f>
-        <v>0.91329075326535525</v>
+        <f>STDEV(-46.86,-52.24,-40.11)</f>
+        <v>6.0778806613271472</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$5:$G$7)</f>
-        <v>32.4</v>
+        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$20:$G$22)</f>
+        <v>33.906666666666666</v>
       </c>
       <c r="C3">
-        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$5:$G$7)</f>
-        <v>4.0159058753909846</v>
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$20:$G$22)</f>
+        <v>3.7707603123684934</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$8:$G$10)</f>
-        <v>35.683333333333337</v>
+        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$2:$G$4)</f>
+        <v>22.94</v>
       </c>
       <c r="C4">
-        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$8:$G$10)</f>
-        <v>2.6828405344584558</v>
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$2:$G$4)</f>
+        <v>3.0098006578509473</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$11:$G$13)</f>
-        <v>34.953333333333333</v>
+        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$14:$G$16)</f>
+        <v>22.416666666666668</v>
       </c>
       <c r="C5">
-        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$11:$G$13)</f>
-        <v>5.9696929010907374</v>
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$14:$G$16)</f>
+        <v>4.3448168354181895</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$14:$G$16)</f>
-        <v>22.416666666666668</v>
+        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$17:$G$19)</f>
+        <v>49.919999999999995</v>
       </c>
       <c r="C6">
-        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$14:$G$16)</f>
-        <v>4.3448168354181895</v>
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$17:$G$19)</f>
+        <v>5.8114369995724839</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$17:$G$19)</f>
-        <v>49.919999999999995</v>
+        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$11:$G$13)</f>
+        <v>34.953333333333333</v>
       </c>
       <c r="C7">
-        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$17:$G$19)</f>
-        <v>5.8114369995724839</v>
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$11:$G$13)</f>
+        <v>5.9696929010907374</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$20:$G$22)</f>
-        <v>33.906666666666666</v>
+        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$8:$G$10)</f>
+        <v>35.683333333333337</v>
       </c>
       <c r="C8">
-        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$20:$G$22)</f>
-        <v>3.7707603123684934</v>
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$8:$G$10)</f>
+        <v>2.6828405344584558</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$2:$G$4)</f>
-        <v>22.94</v>
+        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$5:$G$7)</f>
+        <v>32.4</v>
       </c>
       <c r="C9">
-        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$2:$G$4)</f>
-        <v>3.0098006578509473</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA560A3-D24E-0549-BF6A-D338099A10D2}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$5:$G$7)</f>
+        <v>4.0159058753909846</v>
       </c>
     </row>
   </sheetData>

--- a/Zeta-Potential_Plots/1016_ZetaPotentialData.xlsx
+++ b/Zeta-Potential_Plots/1016_ZetaPotentialData.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784078C5-D7D5-EF43-A78E-4C35DE827EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19EADC2-210C-7E4D-84D4-D93744F764C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="4240" windowWidth="19500" windowHeight="13600" xr2:uid="{C7D04462-72A9-9A45-A05A-D3F26F7A7462}"/>
+    <workbookView xWindow="5280" yWindow="7820" windowWidth="11480" windowHeight="8560" activeTab="1" xr2:uid="{C7D04462-72A9-9A45-A05A-D3F26F7A7462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Polymer</t>
   </si>
@@ -73,6 +74,21 @@
   </si>
   <si>
     <t>DMA B1</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
 </sst>
 </file>
@@ -259,7 +275,7 @@
       <sheetName val="20231016_Zeta-PotentialData"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="G2">
             <v>26.26</v>
@@ -670,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE87C6B2-CBA5-A04D-92AA-57182B086868}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,4 +814,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48634331-8096-D44C-B981-0996E656F73E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(-46.85,-52.23,-40.11)</f>
+        <v>-46.396666666666668</v>
+      </c>
+      <c r="C2">
+        <f>STDEV(-46.86,-52.24,-40.11)</f>
+        <v>6.0778806613271472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$20:$G$22)</f>
+        <v>33.906666666666666</v>
+      </c>
+      <c r="C3">
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$20:$G$22)</f>
+        <v>3.7707603123684934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$14:$G$16)</f>
+        <v>22.416666666666668</v>
+      </c>
+      <c r="C4">
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$14:$G$16)</f>
+        <v>4.3448168354181895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE('[1]20231016_Zeta-PotentialData'!$G$11:$G$13)</f>
+        <v>34.953333333333333</v>
+      </c>
+      <c r="C6">
+        <f>STDEV('[2]20231016_Zeta-PotentialData'!$G$11:$G$13)</f>
+        <v>5.9696929010907374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>